--- a/Data/Ubicaciones/locations.xlsx
+++ b/Data/Ubicaciones/locations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t xml:space="preserve">PROVINCIA</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">SAN MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIEPOS</t>
   </si>
   <si>
     <t xml:space="preserve">QUILCATE</t>
@@ -116,9 +119,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -152,12 +156,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -186,12 +197,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,13 +227,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.16"/>
   </cols>
@@ -546,21 +561,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>-6.82275</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>-78.744</v>
+      <c r="C20" s="2" t="n">
+        <v>-6.92511</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>-79.12902</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,11 +585,11 @@
       <c r="B21" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>-6.97833</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>-78.81119</v>
+      <c r="C21" s="1" t="n">
+        <v>-6.82275</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>-78.744</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
@@ -587,11 +602,11 @@
       <c r="B22" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>-7.0802</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>-79.04045</v>
+      <c r="C22" s="0" t="n">
+        <v>-6.97833</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>-78.81119</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
@@ -599,18 +614,35 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="1" t="n">
+        <v>-7.0802</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>-79.04045</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>-7.11775</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D24" s="1" t="n">
         <v>-78.83083</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
